--- a/biology/Zoologie/Homalopsidae/Homalopsidae.xlsx
+++ b/biology/Zoologie/Homalopsidae/Homalopsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Homalopsidae sont une famille de serpents[1]. Elle a été créée par Charles-Lucien Bonaparte en 1845.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Homalopsidae sont une famille de serpents. Elle a été créée par Charles-Lucien Bonaparte en 1845.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 décembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 décembre 2014) :
 Bitia Gray, 1842
 Brachyorrhos Kuhl, 1826
 Calamophis Meyer, 1874
@@ -600,9 +616,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille était traditionnellement considérée comme la sous-famille des Homalopsinae dans les Colubridae[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille était traditionnellement considérée comme la sous-famille des Homalopsinae dans les Colubridae.
 </t>
         </is>
       </c>
@@ -631,7 +649,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bonaparte, 1845 : Specchio generale dei sistemi erpetologico, anfibiologico ed ittiologico. Atti Riunione degli Scienziati Italiani, vol. 6, p. 376-378.</t>
         </is>
